--- a/biology/Botanique/Adansonia_perrieri/Adansonia_perrieri.xlsx
+++ b/biology/Botanique/Adansonia_perrieri/Adansonia_perrieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Baobab de Perrier (Adansonia perrieri) est une espèce d'arbre de la famille des Bombacaceae selon la classification classique, ou de celle des Malvaceae selon la classification phylogénétique.
 Cette espèce, endémique de Madagascar, est en voie de disparition.
